--- a/TrueAug_Cheb_CiteSeer_output.xlsx
+++ b/TrueAug_Cheb_CiteSeer_output.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -843,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A328"/>
+  <dimension ref="A1:A563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,2289 +862,3967 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:326, time:6.657317, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:561, time:6.769322, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:325, time:6.715308, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:560, time:6.930606, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:324, time:6.805762, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:559, time:6.810277, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:323, time:6.750255, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:558, time:6.901122, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:322, time:6.714169, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:557, time:6.621449, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:321, time:6.695837, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:556, time:6.834261, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:320, time:6.644665, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:555, time:6.761460, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:319, time:6.757014, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:554, time:6.704583, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:318, time:6.649446, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:553, time:6.753219, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:317, time:6.734160, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:552, time:6.597921, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:316, time:6.716093, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:551, time:6.558341, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:315, time:6.691695, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:550, time:6.578030, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:314, time:6.608581, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:549, time:6.928556, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:313, time:7.040629, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:548, time:6.780603, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:312, time:7.432886, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:547, time:6.701556, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:311, time:7.379485, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:546, time:6.671845, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:310, time:7.139398, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:545, time:6.735519, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:309, time:6.880659, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:544, time:6.857496, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:308, time:6.692521, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:543, time:6.749419, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:307, time:6.822555, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:542, time:6.829819, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:306, time:6.680836, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:541, time:6.741661, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:305, time:6.673386, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:540, time:6.793973, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:304, time:6.687100, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:539, time:6.723782, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:303, time:6.800288, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:538, time:6.597869, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:302, time:6.782908, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:537, time:6.660349, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:301, time:6.995283, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:536, time:6.656087, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:300, time:6.716975, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:535, time:6.785773, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:299, time:6.693305, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:534, time:6.615366, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:298, time:6.643684, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:533, time:6.653532, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:297, time:6.671313, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:532, time:6.793471, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:296, time:6.542126, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:531, time:6.763584, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:295, time:6.521811, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:530, time:6.737544, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:294, time:6.462356, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:529, time:6.999886, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:293, time:6.656564, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:528, time:6.787327, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:292, time:6.768681, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:527, time:6.782099, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:291, time:6.758641, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:526, time:6.838674, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:290, time:6.832293, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:525, time:6.951078, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:289, time:6.829265, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:524, time:6.890151, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:288, time:6.385890, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:523, time:6.851103, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:287, time:10.255904, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:522, time:6.543272, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:286, time:11.094329, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:521, time:6.755231, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:285, time:10.532003, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:520, time:6.755203, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:284, time:9.739101, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:519, time:6.840005, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:283, time:9.590218, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:518, time:7.005344, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:282, time:10.475709, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:517, time:6.876289, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:281, time:10.851763, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:516, time:6.772770, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:280, time:9.799165, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:515, time:6.746010, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:279, time:9.790909, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:514, time:6.991497, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:278, time:10.494864, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:513, time:6.678091, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:277, time:9.778527, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:512, time:6.750751, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:276, time:9.817388, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:511, time:6.800055, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:275, time:10.479050, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:510, time:6.654611, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:274, time:10.042877, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:509, time:6.618145, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:273, time:10.560023, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:508, time:6.666116, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:272, time:9.914323, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:507, time:6.771503, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:271, time:11.034348, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:506, time:6.750343, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:270, time:10.544372, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:505, time:6.783467, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:269, time:9.997351, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:504, time:6.728857, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:268, time:9.421204, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:503, time:6.832619, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:267, time:10.149538, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:502, time:6.755768, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:266, time:10.167324, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:501, time:6.772216, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:265, time:10.540138, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:500, time:6.789747, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:264, time:10.384791, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:499, time:6.773713, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:263, time:9.827954, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:498, time:6.691560, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:262, time:9.466126, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:497, time:6.705997, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:261, time:10.342120, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:496, time:6.627700, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:260, time:11.198352, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:495, time:6.631845, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:259, time:10.792727, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:494, time:6.629180, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:258, time:9.662153, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:493, time:6.654124, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:257, time:9.313415, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:492, time:6.523716, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:256, time:9.440359, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:491, time:6.674784, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:255, time:9.790222, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:490, time:6.594950, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:254, time:10.906774, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:489, time:6.665327, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:253, time:10.808940, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:488, time:6.686123, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:252, time:10.976950, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:487, time:6.884775, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:251, time:10.496808, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:486, time:6.494328, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:250, time:9.763208, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:485, time:6.602062, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:249, time:10.193123, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:484, time:6.605712, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:248, time:10.659170, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:483, time:6.753475, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:247, time:10.923783, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:482, time:6.648128, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:246, time:10.353179, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:481, time:6.719186, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:245, time:9.917306, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:480, time:6.643548, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:244, time:10.553472, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:479, time:6.552660, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:243, time:10.062348, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:478, time:6.531871, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:242, time:10.289525, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:477, time:6.592099, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:241, time:10.231426, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:476, time:6.659121, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:240, time:10.824299, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:475, time:6.608698, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:239, time:10.660906, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:474, time:6.674604, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:238, time:10.458678, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:473, time:6.854224, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:237, time:9.684214, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:472, time:6.761112, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:236, time:11.555907, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:471, time:6.910189, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:235, time:9.725631, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:470, time:6.751299, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:234, time:11.005682, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:469, time:6.857220, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:233, time:9.424053, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:468, time:6.939481, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:232, time:11.359148, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:467, time:6.727743, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:231, time:9.465941, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:466, time:6.686518, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:230, time:10.024127, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:465, time:6.709083, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:229, time:10.245610, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:464, time:6.745340, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:228, time:10.175947, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:463, time:6.734233, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:227, time:11.238244, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:462, time:6.774428, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:226, time:11.200715, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:461, time:6.829473, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:225, time:10.032353, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:460, time:6.906655, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:224, time:9.968884, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:459, time:6.764432, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:223, time:10.042544, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:458, time:6.749032, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:222, time:10.769922, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:457, time:6.835515, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:221, time:11.415212, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:456, time:6.782546, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:220, time:9.991691, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:455, time:6.745788, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:219, time:9.951868, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:454, time:6.659826, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:218, time:10.956266, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:453, time:6.864163, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:217, time:11.386665, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:452, time:6.629288, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:216, time:11.753767, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:451, time:6.451165, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:215, time:10.464290, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:450, time:6.874847, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:214, time:9.592558, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:449, time:6.697872, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:213, time:9.542531, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:448, time:6.432860, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:212, time:9.218957, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:447, time:6.677273, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:211, time:9.598876, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:446, time:6.747139, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:210, time:12.504906, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:445, time:6.881926, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:209, time:8.171643, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:444, time:6.772500, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:208, time:11.110216, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:443, time:6.842412, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:207, time:9.774927, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:442, time:6.950134, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:206, time:9.830727, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:441, time:6.550294, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:205, time:12.613366, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:440, time:6.550850, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:204, time:8.026587, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:439, time:6.631476, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:203, time:12.291092, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:438, time:6.718458, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:202, time:8.956523, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:437, time:6.840044, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:201, time:10.201206, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:436, time:6.674296, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:200, time:12.605654, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:435, time:6.802066, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:199, time:10.122252, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:434, time:6.964838, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:198, time:13.732470, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:433, time:6.665492, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:197, time:10.115116, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:432, time:6.791057, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:196, time:10.191361, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:431, time:6.770782, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:195, time:7.483787, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:430, time:6.631648, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:194, time:7.475421, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:429, time:6.718282, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:193, time:8.711506, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:428, time:6.741653, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:192, time:9.526904, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:427, time:6.744771, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:191, time:7.240577, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:426, time:6.725673, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:190, time:6.789716, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:425, time:6.701461, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:189, time:6.907319, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:424, time:6.697038, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:188, time:6.721464, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:423, time:6.661700, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:187, time:6.734374, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:422, time:6.744037, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:186, time:6.741102, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:421, time:6.908895, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:185, time:6.895588, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:420, time:6.640340, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:184, time:9.898966, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:419, time:6.581675, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:183, time:12.233413, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:418, time:6.729190, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:182, time:10.894771, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+          <t>Epoch:417, time:6.807674, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:181, time:10.124918, test_Acc: 46.80, test_bacc: 41.02, test_f1: 30.54</t>
+          <t>Epoch:416, time:6.652241, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:180, time:10.207306, test_Acc: 46.80, test_bacc: 41.02, test_f1: 30.54</t>
+          <t>Epoch:415, time:6.695617, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:179, time:7.061918, test_Acc: 46.40, test_bacc: 40.63, test_f1: 30.32</t>
+          <t>Epoch:414, time:6.653614, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:178, time:6.753899, test_Acc: 46.40, test_bacc: 40.63, test_f1: 30.32</t>
+          <t>Epoch:413, time:6.750567, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:177, time:6.925355, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+          <t>Epoch:412, time:6.833508, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:176, time:6.720071, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+          <t>Epoch:411, time:6.849558, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:175, time:6.797768, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+          <t>Epoch:410, time:6.687831, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:174, time:6.754683, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+          <t>Epoch:409, time:6.753780, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:173, time:6.819910, test_Acc: 45.70, test_bacc: 40.06, test_f1: 30.26</t>
+          <t>Epoch:408, time:6.680650, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:172, time:6.892726, test_Acc: 45.70, test_bacc: 40.06, test_f1: 30.26</t>
+          <t>Epoch:407, time:6.749491, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:171, time:6.901401, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+          <t>Epoch:406, time:6.513173, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:170, time:6.867063, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+          <t>Epoch:405, time:6.576753, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:169, time:6.762292, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+          <t>Epoch:404, time:6.582667, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:168, time:6.784883, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+          <t>Epoch:403, time:6.757574, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:167, time:6.902406, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+          <t>Epoch:402, time:6.507197, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:166, time:6.875993, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+          <t>Epoch:401, time:6.541981, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:165, time:6.990994, test_Acc: 45.20, test_bacc: 39.59, test_f1: 30.51</t>
+          <t>Epoch:400, time:6.698935, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:164, time:6.604652, test_Acc: 45.20, test_bacc: 39.59, test_f1: 30.51</t>
+          <t>Epoch:399, time:6.560902, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:163, time:6.782955, test_Acc: 45.10, test_bacc: 39.44, test_f1: 30.49</t>
+          <t>Epoch:398, time:6.839752, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:162, time:6.688251, test_Acc: 45.10, test_bacc: 39.44, test_f1: 30.49</t>
+          <t>Epoch:397, time:6.750942, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:161, time:6.821714, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+          <t>Epoch:396, time:6.948749, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:160, time:6.747199, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+          <t>Epoch:395, time:7.459759, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epoch:159, time:6.779025, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+          <t>Epoch:394, time:7.240205, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Epoch:158, time:6.882627, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+          <t>Epoch:393, time:7.327579, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Epoch:157, time:6.897403, test_Acc: 44.00, test_bacc: 38.54, test_f1: 30.19</t>
+          <t>Epoch:392, time:7.386559, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Epoch:156, time:6.788745, test_Acc: 44.00, test_bacc: 38.54, test_f1: 30.19</t>
+          <t>Epoch:391, time:7.467868, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Epoch:155, time:7.039522, test_Acc: 43.10, test_bacc: 37.86, test_f1: 29.62</t>
+          <t>Epoch:390, time:7.330857, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Epoch:154, time:6.904091, test_Acc: 43.10, test_bacc: 37.86, test_f1: 29.62</t>
+          <t>Epoch:389, time:7.466275, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epoch:153, time:6.674177, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+          <t>Epoch:388, time:7.256295, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Epoch:152, time:6.819742, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+          <t>Epoch:387, time:7.001602, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Epoch:151, time:6.952566, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+          <t>Epoch:386, time:6.873282, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epoch:150, time:6.859117, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+          <t>Epoch:385, time:6.714891, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Epoch:149, time:6.789659, test_Acc: 40.40, test_bacc: 35.38, test_f1: 28.44</t>
+          <t>Epoch:384, time:6.748322, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Epoch:148, time:6.865719, test_Acc: 40.40, test_bacc: 35.38, test_f1: 28.44</t>
+          <t>Epoch:383, time:6.865791, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Epoch:147, time:6.771616, test_Acc: 40.80, test_bacc: 35.23, test_f1: 28.43</t>
+          <t>Epoch:382, time:6.837220, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Epoch:146, time:6.778884, test_Acc: 40.80, test_bacc: 35.23, test_f1: 28.43</t>
+          <t>Epoch:381, time:6.684565, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Epoch:145, time:6.835156, test_Acc: 39.70, test_bacc: 33.41, test_f1: 24.99</t>
+          <t>Epoch:380, time:6.663022, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Epoch:144, time:6.947838, test_Acc: 39.70, test_bacc: 33.41, test_f1: 24.99</t>
+          <t>Epoch:379, time:6.860441, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Epoch:143, time:6.874169, test_Acc: 36.60, test_bacc: 30.35, test_f1: 20.63</t>
+          <t>Epoch:378, time:6.827866, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Epoch:142, time:6.816113, test_Acc: 36.60, test_bacc: 30.35, test_f1: 20.63</t>
+          <t>Epoch:377, time:6.909819, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epoch:141, time:6.758814, test_Acc: 36.60, test_bacc: 30.35, test_f1: 20.63</t>
+          <t>Epoch:376, time:7.198616, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Epoch:140, time:6.802185, test_Acc: 36.30, test_bacc: 30.05, test_f1: 20.03</t>
+          <t>Epoch:375, time:6.633926, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Epoch:139, time:6.835181, test_Acc: 36.30, test_bacc: 30.05, test_f1: 20.03</t>
+          <t>Epoch:374, time:6.704568, test_Acc: 49.20, test_bacc: 42.36, test_f1: 32.35</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epoch:138, time:6.760673, test_Acc: 36.50, test_bacc: 30.29, test_f1: 20.61</t>
+          <t>Epoch:373, time:6.919941, test_Acc: 49.20, test_bacc: 42.41, test_f1: 32.47</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Epoch:137, time:6.666926, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+          <t>Epoch:372, time:6.762634, test_Acc: 49.20, test_bacc: 42.41, test_f1: 32.47</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Epoch:136, time:6.915341, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+          <t>Epoch:371, time:6.929786, test_Acc: 49.20, test_bacc: 42.41, test_f1: 32.47</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Epoch:135, time:6.765324, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+          <t>Epoch:370, time:6.855237, test_Acc: 49.20, test_bacc: 42.41, test_f1: 32.47</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Epoch:134, time:6.800865, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+          <t>Epoch:369, time:6.868389, test_Acc: 49.20, test_bacc: 42.41, test_f1: 32.47</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Epoch:133, time:6.715987, test_Acc: 36.10, test_bacc: 29.86, test_f1: 19.82</t>
+          <t>Epoch:368, time:6.522141, test_Acc: 49.20, test_bacc: 42.41, test_f1: 32.47</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Epoch:132, time:6.715686, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+          <t>Epoch:367, time:6.676726, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Epoch:131, time:6.853026, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+          <t>Epoch:366, time:6.636149, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Epoch:130, time:6.818564, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+          <t>Epoch:365, time:6.668010, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epoch:129, time:6.836365, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+          <t>Epoch:364, time:6.637752, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Epoch:128, time:6.817042, test_Acc: 35.10, test_bacc: 28.97, test_f1: 18.51</t>
+          <t>Epoch:363, time:6.691485, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epoch:127, time:7.002447, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+          <t>Epoch:362, time:6.709271, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epoch:126, time:6.651662, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+          <t>Epoch:361, time:6.839514, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Epoch:125, time:6.638128, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+          <t>Epoch:360, time:6.979199, test_Acc: 48.80, test_bacc: 41.97, test_f1: 32.12</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Epoch:124, time:6.670570, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+          <t>Epoch:359, time:7.333292, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Epoch:123, time:6.773870, test_Acc: 35.10, test_bacc: 28.92, test_f1: 18.33</t>
+          <t>Epoch:358, time:7.394506, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Epoch:122, time:6.587444, test_Acc: 34.80, test_bacc: 28.73, test_f1: 18.35</t>
+          <t>Epoch:357, time:6.664847, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Epoch:121, time:6.761898, test_Acc: 34.70, test_bacc: 28.64, test_f1: 18.17</t>
+          <t>Epoch:356, time:6.668078, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Epoch:120, time:6.920728, test_Acc: 34.70, test_bacc: 28.63, test_f1: 18.03</t>
+          <t>Epoch:355, time:6.743512, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Epoch:119, time:6.698584, test_Acc: 34.70, test_bacc: 28.63, test_f1: 18.03</t>
+          <t>Epoch:354, time:6.700215, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Epoch:118, time:6.699015, test_Acc: 34.30, test_bacc: 28.34, test_f1: 18.11</t>
+          <t>Epoch:353, time:6.681003, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Epoch:117, time:6.683782, test_Acc: 34.30, test_bacc: 28.34, test_f1: 18.11</t>
+          <t>Epoch:352, time:6.715238, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Epoch:116, time:6.717178, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+          <t>Epoch:351, time:6.684349, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Epoch:115, time:6.685995, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+          <t>Epoch:350, time:6.930055, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Epoch:114, time:6.796259, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+          <t>Epoch:349, time:6.741634, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epoch:113, time:6.617399, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+          <t>Epoch:348, time:6.486659, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Epoch:112, time:6.710516, test_Acc: 34.00, test_bacc: 28.00, test_f1: 17.30</t>
+          <t>Epoch:347, time:6.580241, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Epoch:111, time:6.715442, test_Acc: 34.00, test_bacc: 28.00, test_f1: 17.30</t>
+          <t>Epoch:346, time:6.678985, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Epoch:110, time:6.739161, test_Acc: 34.00, test_bacc: 28.00, test_f1: 17.30</t>
+          <t>Epoch:345, time:6.683131, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Epoch:109, time:6.727604, test_Acc: 33.70, test_bacc: 27.68, test_f1: 16.71</t>
+          <t>Epoch:344, time:6.555959, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Epoch:108, time:6.741952, test_Acc: 33.70, test_bacc: 27.68, test_f1: 16.71</t>
+          <t>Epoch:343, time:6.757029, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Epoch:107, time:6.853812, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+          <t>Epoch:342, time:7.417153, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Epoch:106, time:6.872386, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+          <t>Epoch:341, time:7.449412, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Epoch:105, time:6.654392, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+          <t>Epoch:340, time:7.321063, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Epoch:104, time:6.610120, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+          <t>Epoch:339, time:7.681401, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Epoch:103, time:6.762675, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+          <t>Epoch:338, time:6.842681, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epoch:102, time:6.974245, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+          <t>Epoch:337, time:6.644832, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Epoch:101, time:6.828856, test_Acc: 33.70, test_bacc: 27.72, test_f1: 16.81</t>
+          <t>Epoch:336, time:6.755825, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Epoch:100, time:6.880268, test_Acc: 33.70, test_bacc: 27.72, test_f1: 16.81</t>
+          <t>Epoch:335, time:6.825182, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Epoch:99, time:6.969192, test_Acc: 33.70, test_bacc: 27.72, test_f1: 16.81</t>
+          <t>Epoch:334, time:6.840303, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Epoch:98, time:6.819943, test_Acc: 33.50, test_bacc: 27.58, test_f1: 16.80</t>
+          <t>Epoch:333, time:6.745658, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Epoch:97, time:6.767788, test_Acc: 33.60, test_bacc: 27.65, test_f1: 16.82</t>
+          <t>Epoch:332, time:6.644883, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Epoch:96, time:6.641015, test_Acc: 33.60, test_bacc: 27.65, test_f1: 16.82</t>
+          <t>Epoch:331, time:6.729995, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Epoch:95, time:6.849437, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+          <t>Epoch:330, time:6.594778, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Epoch:94, time:6.900793, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+          <t>Epoch:329, time:6.701050, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Epoch:93, time:6.948302, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+          <t>Epoch:328, time:6.861884, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Epoch:92, time:6.864042, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+          <t>Epoch:327, time:6.691831, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Epoch:91, time:6.812756, test_Acc: 33.10, test_bacc: 27.33, test_f1: 16.88</t>
+          <t>Epoch:326, time:6.657317, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Epoch:90, time:6.854745, test_Acc: 33.10, test_bacc: 27.33, test_f1: 16.88</t>
+          <t>Epoch:325, time:6.715308, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Epoch:89, time:6.716855, test_Acc: 33.10, test_bacc: 27.33, test_f1: 16.88</t>
+          <t>Epoch:324, time:6.805762, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Epoch:88, time:6.880295, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:323, time:6.750255, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Epoch:87, time:6.825801, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:322, time:6.714169, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Epoch:86, time:6.863132, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:321, time:6.695837, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Epoch:85, time:6.860010, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:320, time:6.644665, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Epoch:84, time:6.798486, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:319, time:6.757014, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Epoch:83, time:6.718266, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:318, time:6.649446, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Epoch:82, time:6.544495, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+          <t>Epoch:317, time:6.734160, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Epoch:81, time:6.782990, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+          <t>Epoch:316, time:6.716093, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Epoch:80, time:6.803403, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+          <t>Epoch:315, time:6.691695, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Epoch:79, time:6.804538, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+          <t>Epoch:314, time:6.608581, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Epoch:78, time:6.793402, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+          <t>Epoch:313, time:7.040629, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Epoch:77, time:6.883169, test_Acc: 29.70, test_bacc: 24.96, test_f1: 15.72</t>
+          <t>Epoch:312, time:7.432886, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Epoch:76, time:6.936667, test_Acc: 29.40, test_bacc: 24.76, test_f1: 15.53</t>
+          <t>Epoch:311, time:7.379485, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Epoch:75, time:6.932183, test_Acc: 29.40, test_bacc: 24.76, test_f1: 15.53</t>
+          <t>Epoch:310, time:7.139398, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Epoch:74, time:7.059505, test_Acc: 28.70, test_bacc: 24.25, test_f1: 15.31</t>
+          <t>Epoch:309, time:6.880659, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Epoch:73, time:6.711766, test_Acc: 27.60, test_bacc: 23.46, test_f1: 14.60</t>
+          <t>Epoch:308, time:6.692521, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Epoch:72, time:6.874090, test_Acc: 27.60, test_bacc: 23.46, test_f1: 14.60</t>
+          <t>Epoch:307, time:6.822555, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Epoch:71, time:6.947696, test_Acc: 27.40, test_bacc: 23.32, test_f1: 14.49</t>
+          <t>Epoch:306, time:6.680836, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Epoch:70, time:7.003110, test_Acc: 27.40, test_bacc: 23.32, test_f1: 14.49</t>
+          <t>Epoch:305, time:6.673386, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Epoch:69, time:6.854531, test_Acc: 25.70, test_bacc: 22.11, test_f1: 13.27</t>
+          <t>Epoch:304, time:6.687100, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Epoch:68, time:7.071696, test_Acc: 25.70, test_bacc: 22.11, test_f1: 13.27</t>
+          <t>Epoch:303, time:6.800288, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Epoch:67, time:7.076187, test_Acc: 24.60, test_bacc: 21.32, test_f1: 12.34</t>
+          <t>Epoch:302, time:6.782908, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Epoch:66, time:6.855447, test_Acc: 24.00, test_bacc: 20.90, test_f1: 11.91</t>
+          <t>Epoch:301, time:6.995283, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Epoch:65, time:6.838845, test_Acc: 24.00, test_bacc: 20.90, test_f1: 11.91</t>
+          <t>Epoch:300, time:6.716975, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Epoch:64, time:6.862171, test_Acc: 23.40, test_bacc: 20.47, test_f1: 11.38</t>
+          <t>Epoch:299, time:6.693305, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Epoch:63, time:6.896210, test_Acc: 23.40, test_bacc: 20.47, test_f1: 11.38</t>
+          <t>Epoch:298, time:6.643684, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Epoch:62, time:6.718924, test_Acc: 22.90, test_bacc: 20.11, test_f1: 10.92</t>
+          <t>Epoch:297, time:6.671313, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Epoch:61, time:6.736198, test_Acc: 21.80, test_bacc: 19.32, test_f1: 9.80</t>
+          <t>Epoch:296, time:6.542126, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Epoch:60, time:6.843524, test_Acc: 22.10, test_bacc: 19.53, test_f1: 10.13</t>
+          <t>Epoch:295, time:6.521811, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Epoch:59, time:6.703345, test_Acc: 20.20, test_bacc: 18.16, test_f1: 8.05</t>
+          <t>Epoch:294, time:6.462356, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Epoch:58, time:6.703252, test_Acc: 20.20, test_bacc: 18.16, test_f1: 8.05</t>
+          <t>Epoch:293, time:6.656564, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Epoch:57, time:6.646009, test_Acc: 20.10, test_bacc: 18.11, test_f1: 7.83</t>
+          <t>Epoch:292, time:6.768681, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Epoch:56, time:6.914306, test_Acc: 19.60, test_bacc: 17.75, test_f1: 7.20</t>
+          <t>Epoch:291, time:6.758641, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Epoch:55, time:6.928662, test_Acc: 19.60, test_bacc: 17.75, test_f1: 7.20</t>
+          <t>Epoch:290, time:6.832293, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Epoch:54, time:6.885084, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:289, time:6.829265, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Epoch:53, time:6.722546, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:288, time:6.385890, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Epoch:52, time:6.827198, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:287, time:10.255904, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Epoch:51, time:6.855636, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:286, time:11.094329, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Epoch:50, time:6.791414, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:285, time:10.532003, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Epoch:49, time:6.946488, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:284, time:9.739101, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Epoch:48, time:6.763637, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:283, time:9.590218, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Epoch:47, time:6.811811, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:282, time:10.475709, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Epoch:46, time:6.573845, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:281, time:10.851763, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Epoch:45, time:6.701470, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:280, time:9.799165, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Epoch:44, time:6.706739, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:279, time:9.790909, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Epoch:43, time:6.921342, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:278, time:10.494864, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Epoch:42, time:6.731492, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:277, time:9.778527, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Epoch:41, time:6.820396, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:276, time:9.817388, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Epoch:40, time:6.626859, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:275, time:10.479050, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Epoch:39, time:6.606400, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:274, time:10.042877, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Epoch:38, time:6.548443, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:273, time:10.560023, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Epoch:37, time:6.892179, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:272, time:9.914323, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Epoch:36, time:6.854118, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:271, time:11.034348, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Epoch:35, time:6.809493, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:270, time:10.544372, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Epoch:34, time:6.892792, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:269, time:9.997351, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Epoch:33, time:6.704702, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:268, time:9.421204, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Epoch:32, time:6.721323, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:267, time:10.149538, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Epoch:31, time:6.769395, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:266, time:10.167324, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Epoch:30, time:6.949241, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:265, time:10.540138, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Epoch:29, time:6.778138, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:264, time:10.384791, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Epoch:28, time:6.876949, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:263, time:9.827954, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Epoch:27, time:6.668941, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:262, time:9.466126, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Epoch:26, time:6.620995, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:261, time:10.342120, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Epoch:25, time:6.961638, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:260, time:11.198352, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Epoch:24, time:6.936275, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:259, time:10.792727, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Epoch:23, time:6.948717, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:258, time:9.662153, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Epoch:22, time:6.899088, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:257, time:9.313415, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Epoch:21, time:6.884715, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:256, time:9.440359, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Epoch:20, time:6.956927, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:255, time:9.790222, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Epoch:19, time:6.708620, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:254, time:10.906774, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Epoch:18, time:6.626086, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:253, time:10.808940, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Epoch:17, time:6.611300, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:252, time:10.976950, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Epoch:16, time:6.738827, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:251, time:10.496808, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Epoch:15, time:6.742455, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:250, time:9.763208, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Epoch:14, time:6.701602, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+          <t>Epoch:249, time:10.193123, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Epoch:13, time:6.622027, test_Acc: 22.50, test_bacc: 16.27, test_f1: 6.79</t>
+          <t>Epoch:248, time:10.659170, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Epoch:12, time:6.524770, test_Acc: 22.50, test_bacc: 16.27, test_f1: 6.79</t>
+          <t>Epoch:247, time:10.923783, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Epoch:11, time:6.553858, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:246, time:10.353179, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Epoch:10, time:6.736768, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:245, time:9.917306, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Epoch:9, time:6.457002, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:244, time:10.553472, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Epoch:8, time:6.177815, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:243, time:10.062348, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Epoch:7, time:6.567214, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:242, time:10.289525, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Epoch:6, time:6.951327, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:241, time:10.231426, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Epoch:5, time:17.162696, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:240, time:10.824299, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Epoch:4, time:18.365744, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:239, time:10.660906, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Epoch:3, time:16.785535, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:238, time:10.458678, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Epoch:2, time:18.138308, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:237, time:9.684214, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Epoch:1, time:18.657191, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+          <t>Epoch:236, time:11.555907, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
+          <t>Epoch:235, time:9.725631, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:234, time:11.005682, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:233, time:9.424053, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:232, time:11.359148, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:231, time:9.465941, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:230, time:10.024127, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:229, time:10.245610, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:228, time:10.175947, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:227, time:11.238244, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:226, time:11.200715, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:225, time:10.032353, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:224, time:9.968884, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:223, time:10.042544, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:222, time:10.769922, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:221, time:11.415212, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:220, time:9.991691, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:219, time:9.951868, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:218, time:10.956266, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:217, time:11.386665, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:216, time:11.753767, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:215, time:10.464290, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:214, time:9.592558, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:213, time:9.542531, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:212, time:9.218957, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:211, time:9.598876, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:210, time:12.504906, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:209, time:8.171643, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:208, time:11.110216, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:207, time:9.774927, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:206, time:9.830727, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:205, time:12.613366, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:204, time:8.026587, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:203, time:12.291092, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:202, time:8.956523, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:201, time:10.201206, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:200, time:12.605654, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:199, time:10.122252, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:198, time:13.732470, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:197, time:10.115116, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:196, time:10.191361, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:195, time:7.483787, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:194, time:7.475421, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:193, time:8.711506, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:192, time:9.526904, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:191, time:7.240577, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:190, time:6.789716, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:189, time:6.907319, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:188, time:6.721464, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:187, time:6.734374, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:186, time:6.741102, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:185, time:6.895588, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:184, time:9.898966, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:183, time:12.233413, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:182, time:10.894771, test_Acc: 46.80, test_bacc: 41.00, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:181, time:10.124918, test_Acc: 46.80, test_bacc: 41.02, test_f1: 30.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:180, time:10.207306, test_Acc: 46.80, test_bacc: 41.02, test_f1: 30.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:179, time:7.061918, test_Acc: 46.40, test_bacc: 40.63, test_f1: 30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:178, time:6.753899, test_Acc: 46.40, test_bacc: 40.63, test_f1: 30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:177, time:6.925355, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:176, time:6.720071, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:175, time:6.797768, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:174, time:6.754683, test_Acc: 46.60, test_bacc: 40.80, test_f1: 30.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:173, time:6.819910, test_Acc: 45.70, test_bacc: 40.06, test_f1: 30.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:172, time:6.892726, test_Acc: 45.70, test_bacc: 40.06, test_f1: 30.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:171, time:6.901401, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:170, time:6.867063, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:169, time:6.762292, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:168, time:6.784883, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:167, time:6.902406, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:166, time:6.875993, test_Acc: 45.60, test_bacc: 39.94, test_f1: 30.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:165, time:6.990994, test_Acc: 45.20, test_bacc: 39.59, test_f1: 30.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:164, time:6.604652, test_Acc: 45.20, test_bacc: 39.59, test_f1: 30.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:163, time:6.782955, test_Acc: 45.10, test_bacc: 39.44, test_f1: 30.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:162, time:6.688251, test_Acc: 45.10, test_bacc: 39.44, test_f1: 30.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:161, time:6.821714, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:160, time:6.747199, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:159, time:6.779025, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:158, time:6.882627, test_Acc: 44.20, test_bacc: 38.71, test_f1: 30.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:157, time:6.897403, test_Acc: 44.00, test_bacc: 38.54, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:156, time:6.788745, test_Acc: 44.00, test_bacc: 38.54, test_f1: 30.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:155, time:7.039522, test_Acc: 43.10, test_bacc: 37.86, test_f1: 29.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:154, time:6.904091, test_Acc: 43.10, test_bacc: 37.86, test_f1: 29.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:153, time:6.674177, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:152, time:6.819742, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch:151, time:6.952566, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch:150, time:6.859117, test_Acc: 42.20, test_bacc: 37.00, test_f1: 29.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch:149, time:6.789659, test_Acc: 40.40, test_bacc: 35.38, test_f1: 28.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch:148, time:6.865719, test_Acc: 40.40, test_bacc: 35.38, test_f1: 28.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch:147, time:6.771616, test_Acc: 40.80, test_bacc: 35.23, test_f1: 28.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch:146, time:6.778884, test_Acc: 40.80, test_bacc: 35.23, test_f1: 28.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch:145, time:6.835156, test_Acc: 39.70, test_bacc: 33.41, test_f1: 24.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch:144, time:6.947838, test_Acc: 39.70, test_bacc: 33.41, test_f1: 24.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch:143, time:6.874169, test_Acc: 36.60, test_bacc: 30.35, test_f1: 20.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch:142, time:6.816113, test_Acc: 36.60, test_bacc: 30.35, test_f1: 20.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch:141, time:6.758814, test_Acc: 36.60, test_bacc: 30.35, test_f1: 20.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch:140, time:6.802185, test_Acc: 36.30, test_bacc: 30.05, test_f1: 20.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch:139, time:6.835181, test_Acc: 36.30, test_bacc: 30.05, test_f1: 20.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch:138, time:6.760673, test_Acc: 36.50, test_bacc: 30.29, test_f1: 20.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch:137, time:6.666926, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:6.915341, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:6.765324, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:6.800865, test_Acc: 36.10, test_bacc: 29.95, test_f1: 20.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:6.715987, test_Acc: 36.10, test_bacc: 29.86, test_f1: 19.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:6.715686, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:6.853026, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:6.818564, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:6.836365, test_Acc: 35.70, test_bacc: 29.46, test_f1: 19.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:6.817042, test_Acc: 35.10, test_bacc: 28.97, test_f1: 18.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:7.002447, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:6.651662, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:6.638128, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:6.670570, test_Acc: 35.10, test_bacc: 28.91, test_f1: 18.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:6.773870, test_Acc: 35.10, test_bacc: 28.92, test_f1: 18.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:6.587444, test_Acc: 34.80, test_bacc: 28.73, test_f1: 18.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:6.761898, test_Acc: 34.70, test_bacc: 28.64, test_f1: 18.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:6.920728, test_Acc: 34.70, test_bacc: 28.63, test_f1: 18.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:6.698584, test_Acc: 34.70, test_bacc: 28.63, test_f1: 18.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:6.699015, test_Acc: 34.30, test_bacc: 28.34, test_f1: 18.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:6.683782, test_Acc: 34.30, test_bacc: 28.34, test_f1: 18.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:6.717178, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:6.685995, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:6.796259, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:6.617399, test_Acc: 34.50, test_bacc: 28.46, test_f1: 17.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:6.710516, test_Acc: 34.00, test_bacc: 28.00, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:6.715442, test_Acc: 34.00, test_bacc: 28.00, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:6.739161, test_Acc: 34.00, test_bacc: 28.00, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:6.727604, test_Acc: 33.70, test_bacc: 27.68, test_f1: 16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:6.741952, test_Acc: 33.70, test_bacc: 27.68, test_f1: 16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:6.853812, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:6.872386, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:6.654392, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:6.610120, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:6.762675, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:6.974245, test_Acc: 33.60, test_bacc: 27.67, test_f1: 16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:6.828856, test_Acc: 33.70, test_bacc: 27.72, test_f1: 16.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:6.880268, test_Acc: 33.70, test_bacc: 27.72, test_f1: 16.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:6.969192, test_Acc: 33.70, test_bacc: 27.72, test_f1: 16.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:6.819943, test_Acc: 33.50, test_bacc: 27.58, test_f1: 16.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:6.767788, test_Acc: 33.60, test_bacc: 27.65, test_f1: 16.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:6.641015, test_Acc: 33.60, test_bacc: 27.65, test_f1: 16.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:6.849437, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:6.900793, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:6.948302, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:6.864042, test_Acc: 33.20, test_bacc: 27.38, test_f1: 16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:6.812756, test_Acc: 33.10, test_bacc: 27.33, test_f1: 16.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:6.854745, test_Acc: 33.10, test_bacc: 27.33, test_f1: 16.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:6.716855, test_Acc: 33.10, test_bacc: 27.33, test_f1: 16.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:6.880295, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:6.825801, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:6.863132, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:6.860010, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:6.798486, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:6.718266, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:6.544495, test_Acc: 32.20, test_bacc: 26.78, test_f1: 16.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:6.782990, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:6.803403, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:6.804538, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:6.793402, test_Acc: 30.50, test_bacc: 25.55, test_f1: 16.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:6.883169, test_Acc: 29.70, test_bacc: 24.96, test_f1: 15.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:6.936667, test_Acc: 29.40, test_bacc: 24.76, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:6.932183, test_Acc: 29.40, test_bacc: 24.76, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:7.059505, test_Acc: 28.70, test_bacc: 24.25, test_f1: 15.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:6.711766, test_Acc: 27.60, test_bacc: 23.46, test_f1: 14.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:6.874090, test_Acc: 27.60, test_bacc: 23.46, test_f1: 14.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:6.947696, test_Acc: 27.40, test_bacc: 23.32, test_f1: 14.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:7.003110, test_Acc: 27.40, test_bacc: 23.32, test_f1: 14.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:6.854531, test_Acc: 25.70, test_bacc: 22.11, test_f1: 13.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:7.071696, test_Acc: 25.70, test_bacc: 22.11, test_f1: 13.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:7.076187, test_Acc: 24.60, test_bacc: 21.32, test_f1: 12.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:6.855447, test_Acc: 24.00, test_bacc: 20.90, test_f1: 11.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:6.838845, test_Acc: 24.00, test_bacc: 20.90, test_f1: 11.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:6.862171, test_Acc: 23.40, test_bacc: 20.47, test_f1: 11.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:6.896210, test_Acc: 23.40, test_bacc: 20.47, test_f1: 11.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:6.718924, test_Acc: 22.90, test_bacc: 20.11, test_f1: 10.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:6.736198, test_Acc: 21.80, test_bacc: 19.32, test_f1: 9.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:6.843524, test_Acc: 22.10, test_bacc: 19.53, test_f1: 10.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:6.703345, test_Acc: 20.20, test_bacc: 18.16, test_f1: 8.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:6.703252, test_Acc: 20.20, test_bacc: 18.16, test_f1: 8.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:6.646009, test_Acc: 20.10, test_bacc: 18.11, test_f1: 7.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:6.914306, test_Acc: 19.60, test_bacc: 17.75, test_f1: 7.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:6.928662, test_Acc: 19.60, test_bacc: 17.75, test_f1: 7.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:6.885084, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:6.722546, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:6.827198, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:6.855636, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:6.791414, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:6.946488, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:6.763637, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:6.811811, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:6.573845, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:6.701470, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:6.706739, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:6.921342, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:6.731492, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:6.820396, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:6.626859, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:6.606400, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:6.548443, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:6.892179, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:6.854118, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:6.809493, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:6.892792, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:6.704702, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:6.721323, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:6.769395, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:6.949241, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:6.778138, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:6.876949, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:6.668941, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:6.620995, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:6.961638, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:6.936275, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:6.948717, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:6.899088, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:6.884715, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:6.956927, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:6.708620, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:6.626086, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:6.611300, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:6.738827, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:6.742455, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:6.701602, test_Acc: 19.30, test_bacc: 17.01, test_f1: 8.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:6.622027, test_Acc: 22.50, test_bacc: 16.27, test_f1: 6.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:6.524770, test_Acc: 22.50, test_bacc: 16.27, test_f1: 6.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:6.553858, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:6.736768, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:6.457002, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:6.177815, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:6.567214, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:6.951327, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:17.162696, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:18.365744, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:16.785535, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:18.138308, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:18.657191, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
           <t>Epoch:0, time:28.221602, test_Acc: 23.10, test_bacc: 16.67, test_f1: 6.26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Split_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>split: 0, test_Acc: 49.30, test_bacc: 42.59, test_f1: 32.88</t>
         </is>
       </c>
     </row>

--- a/TrueAug_Cheb_CiteSeer_output.xlsx
+++ b/TrueAug_Cheb_CiteSeer_output.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -853,6 +854,3616 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A513"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:511, time:7.239568, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:510, time:7.265215, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:509, time:8.021716, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:508, time:7.328115, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:507, time:9.231420, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:506, time:8.535451, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:505, time:6.698089, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:504, time:7.457277, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:503, time:6.703978, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:502, time:6.952988, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:501, time:8.688311, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:500, time:6.750735, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:499, time:6.985831, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:498, time:7.388162, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:497, time:8.046409, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:496, time:7.363993, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:495, time:6.955121, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:494, time:7.293307, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:493, time:8.084918, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:492, time:7.534318, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:491, time:6.666680, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:490, time:8.327486, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:489, time:6.472835, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:488, time:7.063710, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:487, time:7.099210, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:486, time:6.900147, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:485, time:8.025323, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:484, time:8.566373, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:483, time:6.201674, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:482, time:7.291063, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:481, time:7.191624, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:480, time:7.877487, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:479, time:7.322951, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:478, time:8.291133, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:477, time:6.573399, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:476, time:7.598149, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:475, time:6.936231, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:474, time:6.947829, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:473, time:8.692202, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:472, time:6.412484, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:471, time:7.150871, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:470, time:8.813736, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:469, time:7.006307, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:468, time:6.589569, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:467, time:8.640742, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:466, time:7.236818, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:465, time:7.415938, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:464, time:8.218111, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:463, time:8.781397, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:462, time:7.166821, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:461, time:7.219227, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:460, time:8.188705, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:459, time:7.042381, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:458, time:7.636452, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:457, time:7.921572, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:456, time:7.140532, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:455, time:7.154866, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:454, time:7.755280, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:453, time:6.588094, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:452, time:8.584371, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:451, time:6.146212, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:450, time:7.454600, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:449, time:7.503060, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:448, time:7.361476, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:447, time:7.976845, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:446, time:7.248828, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:445, time:7.127410, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:444, time:9.068407, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:443, time:7.684878, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:442, time:7.550374, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:441, time:8.551758, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:440, time:8.056211, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:439, time:7.964975, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:438, time:8.201196, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:437, time:7.871898, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:436, time:7.938091, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:435, time:7.247023, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:434, time:8.246557, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:433, time:6.949311, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:432, time:7.286457, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:431, time:8.525562, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:430, time:7.117627, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:429, time:7.305466, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:428, time:8.662934, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:427, time:7.703080, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:426, time:7.466736, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:425, time:7.648792, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:424, time:7.851579, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:423, time:6.690383, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:422, time:8.041485, test_Acc: 30.70, test_bacc: 25.48, test_f1: 17.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:421, time:7.068472, test_Acc: 30.70, test_bacc: 25.48, test_f1: 17.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:420, time:7.141645, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:419, time:8.835129, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:418, time:6.970254, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:417, time:8.005923, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:416, time:9.262149, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:415, time:8.050376, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:414, time:7.386866, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:413, time:8.484004, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:412, time:8.572233, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:411, time:7.832074, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:410, time:7.905676, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:409, time:8.454855, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:408, time:8.413103, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:407, time:6.861134, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:406, time:7.656261, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:405, time:8.311135, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:404, time:7.053726, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:403, time:7.818583, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:402, time:7.692792, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:401, time:6.938462, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:400, time:7.809619, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:399, time:7.042118, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:398, time:6.567850, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:397, time:8.746744, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:396, time:7.722267, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:395, time:7.642831, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:394, time:8.757930, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:393, time:7.376715, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:392, time:7.650941, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:391, time:8.213422, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:390, time:6.201362, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:389, time:7.189618, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:388, time:8.025890, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:387, time:6.505064, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:386, time:7.250389, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:385, time:8.509436, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:384, time:6.496739, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:383, time:7.054481, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:382, time:8.277747, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:381, time:6.420645, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:380, time:7.101662, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:379, time:7.261214, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:378, time:6.829220, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:377, time:8.355337, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:376, time:6.649123, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:375, time:7.352506, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:374, time:8.294837, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:373, time:7.117715, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:372, time:8.082926, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:371, time:7.707013, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:370, time:6.863642, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:369, time:7.709254, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:368, time:7.894979, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:367, time:6.940989, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:366, time:8.281229, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:365, time:6.727899, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:364, time:7.002684, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:363, time:8.442980, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:362, time:11.841006, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:361, time:8.729207, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:360, time:11.469366, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:359, time:12.917490, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:358, time:13.861981, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:357, time:11.799691, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:356, time:10.346006, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:355, time:11.943712, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:354, time:13.259269, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:353, time:10.100954, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:352, time:10.987821, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:351, time:13.057078, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:350, time:8.351530, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:349, time:12.452928, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:348, time:13.140418, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:347, time:10.925882, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:346, time:11.392507, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:345, time:12.517463, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:344, time:11.902599, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:343, time:10.500112, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:342, time:14.411417, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:341, time:10.662120, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:340, time:12.871924, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:339, time:11.651214, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:338, time:14.792896, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:337, time:13.241814, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:336, time:9.312975, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:335, time:12.384825, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:334, time:12.819011, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:333, time:9.432310, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:332, time:12.306333, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:331, time:18.842264, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:330, time:17.132731, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:329, time:19.346989, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:328, time:17.010485, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:327, time:20.670780, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:326, time:19.950198, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:325, time:20.484764, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:324, time:17.877996, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:323, time:17.995756, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:322, time:16.795511, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:321, time:15.269485, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:320, time:19.184793, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:319, time:20.013285, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:318, time:19.653205, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:317, time:26.296831, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:316, time:22.993345, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:315, time:23.790203, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:314, time:23.433054, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:313, time:22.518731, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:312, time:21.793234, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:311, time:10.804716, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:310, time:9.475641, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:309, time:12.502556, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:308, time:13.653469, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:307, time:12.923871, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:306, time:9.953809, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:305, time:11.480671, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:304, time:14.323431, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:303, time:14.297510, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:302, time:17.775251, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:301, time:13.021725, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:300, time:11.609550, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:299, time:13.337465, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:298, time:10.258804, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:297, time:11.206511, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:296, time:12.968076, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:295, time:10.527192, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:294, time:10.362865, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:293, time:13.229946, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:292, time:9.960334, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:291, time:13.361574, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:290, time:13.528321, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:289, time:11.964165, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:288, time:9.545128, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:287, time:12.124266, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:286, time:11.978598, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:285, time:10.328875, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:284, time:12.791906, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:283, time:12.757031, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:282, time:11.095545, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:281, time:11.132742, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:280, time:13.095699, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:279, time:10.524372, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:278, time:11.312912, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:277, time:14.167461, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:276, time:12.268068, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:275, time:10.107209, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:274, time:10.606656, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:273, time:14.268533, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:272, time:10.832570, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:271, time:10.973091, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:270, time:12.782226, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:269, time:15.427316, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:268, time:15.639921, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:267, time:12.611855, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:266, time:11.756233, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:265, time:12.311104, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:264, time:12.571813, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:263, time:9.873859, test_Acc: 30.60, test_bacc: 25.41, test_f1: 17.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:262, time:10.412713, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:261, time:13.114925, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:260, time:9.333134, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:259, time:12.994492, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:258, time:13.159266, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:257, time:11.035201, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:256, time:9.386862, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:255, time:12.164236, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:254, time:10.738203, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:253, time:12.689919, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:252, time:12.195702, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:251, time:11.681160, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:250, time:10.398458, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:249, time:12.920818, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:248, time:13.731583, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:247, time:11.824184, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:246, time:9.958115, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:245, time:12.144828, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:244, time:13.255217, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:243, time:11.041530, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:242, time:11.365847, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:241, time:11.823463, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:240, time:13.249036, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:239, time:9.944307, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:238, time:11.835532, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:237, time:13.089254, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:236, time:12.970309, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:235, time:12.238141, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:234, time:12.813439, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:233, time:13.140643, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:232, time:11.011306, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:231, time:10.062756, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:230, time:13.261338, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:229, time:11.468950, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:228, time:11.547010, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:227, time:12.321589, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:226, time:12.465819, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:225, time:11.757822, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:224, time:10.111045, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:223, time:12.475626, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:222, time:12.186234, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:221, time:8.713907, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:220, time:12.362947, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:219, time:13.700999, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:218, time:12.152760, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:217, time:10.681997, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:216, time:14.218119, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:215, time:12.664158, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:214, time:11.181075, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:213, time:13.329480, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:212, time:13.339431, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:211, time:10.540845, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:210, time:11.226492, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:209, time:12.620709, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:208, time:12.612207, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:207, time:10.611349, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:206, time:12.466856, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:205, time:10.122984, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:204, time:12.246517, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:203, time:12.418198, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:202, time:11.747371, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:201, time:11.679932, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:200, time:14.143611, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:199, time:13.048937, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:198, time:9.774075, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:197, time:12.486083, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:196, time:12.758953, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:195, time:13.536337, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:194, time:11.496316, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:193, time:10.926306, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:192, time:11.533606, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:191, time:12.670349, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:190, time:11.295702, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:189, time:11.735636, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:188, time:11.109248, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:187, time:12.159980, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:186, time:12.321914, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:185, time:13.396269, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:184, time:11.077257, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:183, time:10.526262, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:182, time:12.347593, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:181, time:14.040586, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:180, time:9.772516, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:179, time:13.066821, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:178, time:11.355445, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:177, time:12.601461, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:176, time:12.241412, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:175, time:11.648787, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:174, time:13.867012, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:173, time:9.422706, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:172, time:11.662700, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:171, time:13.238059, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:170, time:9.434649, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:169, time:12.424207, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:168, time:13.753453, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:167, time:12.082099, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:166, time:10.620949, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:165, time:11.914342, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:164, time:13.294630, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:163, time:11.441142, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:162, time:10.026580, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:161, time:12.290117, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:160, time:12.232758, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:159, time:11.618887, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:158, time:11.921376, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:157, time:13.344556, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:156, time:10.427876, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:155, time:10.630978, test_Acc: 30.30, test_bacc: 25.19, test_f1: 17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:154, time:13.689215, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:153, time:11.855457, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:152, time:11.225391, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:151, time:10.858267, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:150, time:13.040491, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:149, time:9.738829, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:148, time:11.529701, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:147, time:13.012028, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:146, time:11.733923, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:145, time:9.919097, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:144, time:12.550743, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:143, time:12.745449, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:142, time:10.140953, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:141, time:9.945892, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:140, time:13.020142, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:139, time:10.369512, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:138, time:11.676294, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:137, time:12.889208, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:14.938942, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:9.862495, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:11.729051, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:12.120009, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:10.928971, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:10.552378, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:12.302749, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:10.282387, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:11.424341, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:12.894732, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:9.023495, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:13.427939, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:13.245841, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:11.366374, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:10.816932, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:12.738289, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:11.148758, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:11.511397, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:13.111608, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:11.679521, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:10.139344, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:12.354920, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:11.976152, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:8.947564, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:11.640574, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:13.232978, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:12.612650, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:10.951245, test_Acc: 32.60, test_bacc: 26.51, test_f1: 17.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:11.604860, test_Acc: 32.50, test_bacc: 26.12, test_f1: 16.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:13.357002, test_Acc: 32.50, test_bacc: 26.12, test_f1: 16.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:13.026432, test_Acc: 32.50, test_bacc: 26.12, test_f1: 16.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:10.332413, test_Acc: 32.50, test_bacc: 26.12, test_f1: 16.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:10.506965, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:12.394974, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:13.809321, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:10.665970, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:10.954557, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:12.154853, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:9.330821, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:11.585594, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:12.512399, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:12.294760, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:9.315435, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:12.921058, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:11.896165, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:9.418540, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:13.046330, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:12.201792, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:9.802395, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:11.841054, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:11.427259, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:9.209645, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:12.336776, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:12.822383, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:13.924518, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:10.166345, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:12.333691, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:13.555019, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:9.706647, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:12.730546, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:11.862103, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:8.690585, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:10.302500, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:13.745082, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:10.158838, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:11.745601, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:11.376226, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:9.591650, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:12.547879, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:13.998887, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:12.144968, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:8.812366, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:12.522532, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:13.909273, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:12.683085, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:13.237958, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:12.686491, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:11.952533, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:10.628759, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:14.157248, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:11.476850, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:12.527362, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:11.541113, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:11.928827, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:9.723536, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:12.062176, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:12.996403, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:12.131643, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:9.502581, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:12.174099, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:12.125575, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:16.670017, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:18.860421, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:16.333951, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:19.097410, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:18.107498, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:22.472612, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:18.515771, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:15.677443, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:18.803066, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:17.948122, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:16.496322, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:18.875307, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:21.180636, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:20.063540, test_Acc: 34.50, test_bacc: 29.79, test_f1: 18.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:19.562203, test_Acc: 33.20, test_bacc: 29.08, test_f1: 18.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:23.590611, test_Acc: 33.20, test_bacc: 29.08, test_f1: 18.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:22.496770, test_Acc: 29.70, test_bacc: 26.55, test_f1: 17.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:24.614268, test_Acc: 29.70, test_bacc: 26.55, test_f1: 17.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:22.164332, test_Acc: 29.70, test_bacc: 26.55, test_f1: 17.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:25.100373, test_Acc: 16.40, test_bacc: 16.96, test_f1: 5.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:15.070397, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:12.345294, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:9.626712, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:14.039386, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:11.145058, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:11.399878, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:10.966186, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:13.402848, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:9.588289, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:9.952067, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:13.131584, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:9.122967, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:10.397116, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:12.638034, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:12.665052, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:10.153991, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:13.207877, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:12.088856, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:12.224665, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:11.760127, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:30.519567, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:27.181745, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:28.177067, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:29.491589, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:31.296335, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Epoch:0, time:25.651704, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -864,14 +4475,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Epoch_Output</t>
+          <t>Split_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:0, time:25.651704, test_Acc: 16.00, test_bacc: 16.67, test_f1: 4.60</t>
+          <t>split: 0, test_Acc: 30.80, test_bacc: 25.55, test_f1: 17.37</t>
         </is>
       </c>
     </row>
